--- a/output/fit_clients/fit_round_419.xlsx
+++ b/output/fit_clients/fit_round_419.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2405552988.779312</v>
+        <v>2101187595.881913</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07940046785041044</v>
+        <v>0.07682024896881369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03248957387170764</v>
+        <v>0.03721588816592323</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1202776544.564953</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1899018704.953145</v>
+        <v>2249982215.849567</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1215865850394397</v>
+        <v>0.1302827250995391</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0367553235518781</v>
+        <v>0.03390679067535118</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>949509376.9137523</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5096318999.868153</v>
+        <v>3384203427.488715</v>
       </c>
       <c r="F4" t="n">
-        <v>0.100437083896905</v>
+        <v>0.1410853078736239</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03214573662507669</v>
+        <v>0.02307568356886659</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>151</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2548159591.786552</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3446308295.439784</v>
+        <v>4158316354.787749</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07653338567522067</v>
+        <v>0.06801874920245124</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03857295405900289</v>
+        <v>0.04042735219284179</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>155</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1723154188.082036</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2214485807.360667</v>
+        <v>1843377446.52768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1307941891492042</v>
+        <v>0.1449535155429343</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04152503531899831</v>
+        <v>0.03465198959021276</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>78</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1107242910.078133</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2663895950.979029</v>
+        <v>2388697511.572078</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08210818626768926</v>
+        <v>0.09540284019654735</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04848164489385922</v>
+        <v>0.04269437732818141</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>131</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1331947972.737925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3187694744.444421</v>
+        <v>2959507688.525041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2022449365090433</v>
+        <v>0.2094736049758316</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02620416872102188</v>
+        <v>0.02690028130732407</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>134</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1593847448.940202</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2233499409.554427</v>
+        <v>1837856191.65625</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1496743061807249</v>
+        <v>0.1846651843200078</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02753861194103382</v>
+        <v>0.03402738885458312</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1116749699.011969</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4428073298.358478</v>
+        <v>5182441978.805881</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2099488226701085</v>
+        <v>0.1920791510742235</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03855393538795671</v>
+        <v>0.05084490390379075</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>176</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2214036704.211146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3315479694.714356</v>
+        <v>3119763615.630704</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1443034972889838</v>
+        <v>0.1888806419323295</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0450023098763029</v>
+        <v>0.04595305819181805</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>173</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1657739812.288587</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2950924667.679158</v>
+        <v>3225413604.005548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1643958826931304</v>
+        <v>0.1494697735509297</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05340724761764839</v>
+        <v>0.03565390410519341</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>142</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1475462347.376723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5192999897.964555</v>
+        <v>3608370706.074078</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09094704224830755</v>
+        <v>0.08875296790877618</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02926592242106015</v>
+        <v>0.02229450758456445</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>141</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2596499943.333277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3351852794.677843</v>
+        <v>2738920541.2504</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1842087678782417</v>
+        <v>0.1665764652804358</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03017227718287695</v>
+        <v>0.02980198713254301</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1675926406.311854</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1349985301.008206</v>
+        <v>1795408768.789068</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06575744899171961</v>
+        <v>0.0837723533326953</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04181526319387279</v>
+        <v>0.03995665683608073</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>674992702.0181917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2310404393.751558</v>
+        <v>1868266700.309504</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1042477344172969</v>
+        <v>0.07591669869758172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04359154973306906</v>
+        <v>0.0453117926385011</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>85</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1155202244.641625</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3212180569.718219</v>
+        <v>5039952876.747858</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1738522164354942</v>
+        <v>0.1558224618190888</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03625635779725751</v>
+        <v>0.03802861711273742</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>122</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1606090358.369497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3761665935.462832</v>
+        <v>2622106481.567139</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1809669837620679</v>
+        <v>0.1718427734872392</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0247971933072471</v>
+        <v>0.02463041646829384</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>137</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1880832942.833802</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>976187188.9822255</v>
+        <v>1065220639.651011</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1338105346812775</v>
+        <v>0.1404712863345824</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02627962404498567</v>
+        <v>0.02286276139459305</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>488093617.9376341</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2606532908.164022</v>
+        <v>2221192112.550195</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1008634594876642</v>
+        <v>0.1579749629960189</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02043533889775121</v>
+        <v>0.0255968846771716</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1303266415.845342</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2654671671.946028</v>
+        <v>1696963050.208</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07772276454678279</v>
+        <v>0.09526103666121966</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04237577153178407</v>
+        <v>0.03910304630231267</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1327335809.298522</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3284734997.272935</v>
+        <v>3874373760.69907</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1031945369408464</v>
+        <v>0.09800671399036413</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04492277371164385</v>
+        <v>0.04932658690961705</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1642367543.130383</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1036903895.653996</v>
+        <v>950966125.5454159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1513503967900584</v>
+        <v>0.1748450556514047</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05168280992670493</v>
+        <v>0.04163417544016322</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>518452011.8267193</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2610225862.387021</v>
+        <v>3458679419.881903</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1249308343338035</v>
+        <v>0.1160755944356367</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0372374120647815</v>
+        <v>0.03587570452434464</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>122</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1305112992.665325</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1326023532.004094</v>
+        <v>1284584564.541945</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07806421263308927</v>
+        <v>0.1056182677227018</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01927620803190568</v>
+        <v>0.02375729205647563</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>663011754.9905246</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1418295952.650812</v>
+        <v>939884457.6480951</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09141826130377523</v>
+        <v>0.1203750935506832</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03087926189182342</v>
+        <v>0.0325579358084186</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>709148050.8086998</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3044149429.649264</v>
+        <v>2930866986.756671</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1419099462221346</v>
+        <v>0.1456794994259151</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01874209683979332</v>
+        <v>0.02711709853620836</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1522074772.471697</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3034487974.155587</v>
+        <v>2348278905.270382</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1168319749370063</v>
+        <v>0.1049816178136511</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03953579146089382</v>
+        <v>0.03901274303349485</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1517244001.295434</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5795573439.365585</v>
+        <v>5951224625.773016</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1321699574242609</v>
+        <v>0.1280158055273153</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03668740979739321</v>
+        <v>0.04253977296050626</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>185</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2897786612.140457</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1592766594.171428</v>
+        <v>2158608770.641109</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1328256202637793</v>
+        <v>0.1044002585938551</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02731950242029912</v>
+        <v>0.02646126565432927</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>796383288.1801068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1348943352.981571</v>
+        <v>1262013644.405003</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1115685569957673</v>
+        <v>0.09482706899876335</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03760982928779149</v>
+        <v>0.03788260902052093</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>674471592.904369</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1461722803.928633</v>
+        <v>1185997753.518331</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08460086305961338</v>
+        <v>0.1128236989731082</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02864965771738603</v>
+        <v>0.02978507330010572</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>730861462.4140525</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2767567930.870117</v>
+        <v>2864064991.64742</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1777394773826631</v>
+        <v>0.1911403661684011</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05291091252585323</v>
+        <v>0.04551718804577935</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>126</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1383783980.896696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1093419173.662329</v>
+        <v>1488666158.950697</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09986396358280582</v>
+        <v>0.07341069294105697</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02290059660446858</v>
+        <v>0.02252561264523156</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>546709609.4231069</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1272270886.836884</v>
+        <v>1261235839.404873</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1135137707123246</v>
+        <v>0.07423377306097158</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02745266757637871</v>
+        <v>0.03227012607623259</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>636135402.314801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2584573134.863961</v>
+        <v>1959945226.351714</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1323568032508968</v>
+        <v>0.1252279060226682</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02740398531741937</v>
+        <v>0.01906274237672855</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>107</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1292286582.629709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2267102596.966741</v>
+        <v>2648299011.558535</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1036808104303974</v>
+        <v>0.0767544373091644</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03924273668203592</v>
+        <v>0.03529544248553764</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>113</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1133551362.515701</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1609116618.74145</v>
+        <v>2074377619.550744</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0849716997855227</v>
+        <v>0.1062629813064832</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02840873807120845</v>
+        <v>0.0373707388683877</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>804558343.233652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2066100187.829843</v>
+        <v>1520646443.557646</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1463145236510089</v>
+        <v>0.1463734547591352</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02338645520593166</v>
+        <v>0.03291002299716209</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1033050078.427869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1482521300.07893</v>
+        <v>1154300409.913378</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1460187297481796</v>
+        <v>0.1444192146531955</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04220432798020732</v>
+        <v>0.05590347843852034</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>741260620.6356198</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2160060339.225097</v>
+        <v>2550964631.65237</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1375909980856953</v>
+        <v>0.1563450998845539</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04181409104810034</v>
+        <v>0.03070114054172572</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1080030228.185639</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3060985032.314908</v>
+        <v>3701502475.613224</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1088111860485632</v>
+        <v>0.1235777632637644</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04450353372102241</v>
+        <v>0.03881138258544015</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>136</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1530492480.799183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2865043442.668376</v>
+        <v>2117549466.716793</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1577929932717834</v>
+        <v>0.1991570350278906</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02032494269571096</v>
+        <v>0.02242414521994157</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>146</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1432521733.302619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1487856488.42664</v>
+        <v>1952372794.008474</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08751740462265344</v>
+        <v>0.07819944836413741</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03458264062829881</v>
+        <v>0.02297874960882329</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>743928248.377986</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2168074295.379529</v>
+        <v>1597872875.685188</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1295387924130274</v>
+        <v>0.1366382963291044</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0493446680242025</v>
+        <v>0.04403286437804113</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1084037155.499434</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5473251427.529282</v>
+        <v>4857434925.857579</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1570005973804355</v>
+        <v>0.1704029806626815</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05351006503115215</v>
+        <v>0.04584649093961324</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>149</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2736625767.67514</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4028654247.795473</v>
+        <v>3657371232.287537</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1753084250608669</v>
+        <v>0.1463791326717254</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04031406750884104</v>
+        <v>0.04569295133658375</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>112</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2014327124.664183</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3510504100.559716</v>
+        <v>3437849000.116848</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08897092263189052</v>
+        <v>0.07375053695878389</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03119839214961119</v>
+        <v>0.03820626761753117</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1755252113.147311</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1943856776.2828</v>
+        <v>1925333666.933919</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1297040394601609</v>
+        <v>0.1696939949202065</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03800721829874243</v>
+        <v>0.02830566912904595</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>971928351.1857232</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2588307710.001509</v>
+        <v>3700783844.674809</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1350606401393032</v>
+        <v>0.12595041516695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03681855874162079</v>
+        <v>0.04796186567009363</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>144</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1294153944.155214</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1041371184.715181</v>
+        <v>1104281790.628062</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1648763840437256</v>
+        <v>0.1675642941105222</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04589284740564015</v>
+        <v>0.04149640727039114</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>520685669.6405539</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3539751184.481733</v>
+        <v>4402465993.673504</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1116618179400688</v>
+        <v>0.1290078200624548</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03908443604069086</v>
+        <v>0.04638818559770086</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>172</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1769875675.820534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2641108525.647942</v>
+        <v>2451914420.718347</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1474236736814942</v>
+        <v>0.1676912609905982</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02416905469612006</v>
+        <v>0.0285664323046292</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1320554320.055776</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3044660272.917899</v>
+        <v>3555045475.179533</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1361006318436523</v>
+        <v>0.1064419831371895</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04051448199762947</v>
+        <v>0.04610171330442704</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1522330125.536729</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4822493326.372435</v>
+        <v>3509974180.756542</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2128008043478356</v>
+        <v>0.143901079257834</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02755780889134318</v>
+        <v>0.02236251164843696</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2411246674.389029</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1268898630.76054</v>
+        <v>1541115598.702569</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1397207732791748</v>
+        <v>0.140213671322225</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05717887032880301</v>
+        <v>0.04588762109010613</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>634449391.8936225</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3264291558.973763</v>
+        <v>4587729349.600985</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1543281897137546</v>
+        <v>0.1618404854418627</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01988976773960253</v>
+        <v>0.01885745471608857</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>133</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1632145806.098966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1383439411.053605</v>
+        <v>1370352438.92896</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1332874343939644</v>
+        <v>0.1376197345581546</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03245704307874156</v>
+        <v>0.02648258635621019</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>691719747.3104966</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5054058365.755864</v>
+        <v>5206046555.217008</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1107450373160412</v>
+        <v>0.1135863845506628</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04257359531528589</v>
+        <v>0.03923210459683125</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2527029108.002051</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2372272058.862464</v>
+        <v>3750619969.435268</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1380656689886253</v>
+        <v>0.1295390630426737</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02687266804924399</v>
+        <v>0.03289937035736758</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>129</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1186136033.951755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3356341194.598917</v>
+        <v>3332578534.784663</v>
       </c>
       <c r="F61" t="n">
-        <v>0.153402423872101</v>
+        <v>0.1298276981434017</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02672278190860375</v>
+        <v>0.0304775470717887</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>143</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1678170544.178887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1522847161.796906</v>
+        <v>1805007295.72855</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1247709653058575</v>
+        <v>0.1459469387010477</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03582169520731417</v>
+        <v>0.0344644015334519</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>761423567.4188422</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5596586251.964943</v>
+        <v>5484484434.751554</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06896063254344979</v>
+        <v>0.09112617388396173</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04704741538264597</v>
+        <v>0.03764490164437793</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>119</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2798293117.122259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5198906354.636215</v>
+        <v>3596793803.117619</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1694000208489791</v>
+        <v>0.1826752085121127</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03205554700350045</v>
+        <v>0.02613506931419559</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>130</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2599453297.525199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4886127689.487469</v>
+        <v>5416764074.466395</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1592667899643073</v>
+        <v>0.1597113424481372</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03043899841861505</v>
+        <v>0.02437036193554281</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>150</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2443063810.453745</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4291357987.170167</v>
+        <v>4445326019.663337</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1336379803754054</v>
+        <v>0.1458728276754385</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04389133046749259</v>
+        <v>0.04887535211261738</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2145678982.795761</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2741235403.593671</v>
+        <v>2345765564.056352</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09018083462582283</v>
+        <v>0.1023202183606103</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04323721260485462</v>
+        <v>0.04592451478499053</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>133</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1370617741.989582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4231906504.88239</v>
+        <v>5892588378.223509</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1369655814030905</v>
+        <v>0.1304918338689148</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05103354306747096</v>
+        <v>0.03264496840718382</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>133</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2115953262.292851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2315778669.167258</v>
+        <v>2150199579.156173</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1243149507401923</v>
+        <v>0.1593513284352608</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05707034320081047</v>
+        <v>0.03912102870325689</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1157889380.363091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3624441589.716313</v>
+        <v>2248666870.347234</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07025736227582734</v>
+        <v>0.08562957805954713</v>
       </c>
       <c r="G70" t="n">
-        <v>0.045911954868754</v>
+        <v>0.0368944348739147</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>120</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1812220812.575836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4113664023.507284</v>
+        <v>4866531590.807354</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1359507568738579</v>
+        <v>0.1578988858737462</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02642764805483238</v>
+        <v>0.02253156607026587</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>153</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2056832051.281662</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1785714552.50514</v>
+        <v>1885444132.559343</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07287373282222083</v>
+        <v>0.09455447897829776</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04296235296576119</v>
+        <v>0.03355355639452869</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>892857257.1909835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2413540934.882527</v>
+        <v>2557656970.641953</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08239216012779187</v>
+        <v>0.07750928390490802</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03901820122438065</v>
+        <v>0.04516916393925395</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>159</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1206770517.152519</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3708123017.719359</v>
+        <v>3415119827.859364</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1369411200677114</v>
+        <v>0.1433297689289928</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02651953116095021</v>
+        <v>0.03123201274113528</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>143</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1854061513.021312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2446291941.564929</v>
+        <v>2365260339.84345</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1517509427207904</v>
+        <v>0.1457556543877224</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03736261853905809</v>
+        <v>0.03243979763114411</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1223145893.116182</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5129791196.758677</v>
+        <v>5206737886.01528</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08036444954904669</v>
+        <v>0.09267788793377561</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03329010969105844</v>
+        <v>0.02149618255033621</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>94</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2564895630.485279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1960598573.139702</v>
+        <v>2085767291.428145</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1686185199295874</v>
+        <v>0.1640974711956824</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02554654427079085</v>
+        <v>0.02010616039737385</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>980299342.2558939</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3542383761.095024</v>
+        <v>3797321279.40904</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1190694573806332</v>
+        <v>0.1308416675962023</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05695655618513369</v>
+        <v>0.043959878709888</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>146</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1771191879.025439</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1546009431.456475</v>
+        <v>1225154339.752712</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1710723354171843</v>
+        <v>0.1126820179366088</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03536807466772752</v>
+        <v>0.0392564180082262</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>773004758.0114871</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5031554522.809395</v>
+        <v>4845536955.32128</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08303597102248213</v>
+        <v>0.06999159351015301</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02619284486956609</v>
+        <v>0.02730250146518524</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2515777312.18465</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3208654935.749699</v>
+        <v>4137735486.296617</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1315344639051293</v>
+        <v>0.09710457699547839</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02679112752793058</v>
+        <v>0.03148279802121732</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1604327401.722626</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3480247345.824319</v>
+        <v>5466326561.740255</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1888944946270549</v>
+        <v>0.1401292737187884</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02431429317897034</v>
+        <v>0.02310901501652247</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>148</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1740123741.686804</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1786813985.285324</v>
+        <v>1649244232.778134</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1568532927363222</v>
+        <v>0.1102988692038443</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0409293004288999</v>
+        <v>0.02992489877026803</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>893406951.4653568</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2567945063.214864</v>
+        <v>2535209924.698059</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1017674776969024</v>
+        <v>0.07843481155439061</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04957130428705028</v>
+        <v>0.04688715291334312</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1283972453.443554</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2317231960.095233</v>
+        <v>3469633039.763854</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1710631026627525</v>
+        <v>0.1690323905592301</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03965083057617264</v>
+        <v>0.05469210224909196</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>158</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1158615964.864442</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2537463315.90522</v>
+        <v>2032875122.206823</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1535467883410652</v>
+        <v>0.1528721458366481</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02091159926388885</v>
+        <v>0.02355890246977957</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1268731760.337384</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1202780433.774217</v>
+        <v>1160450857.668307</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1885261149814651</v>
+        <v>0.1185626306736181</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03196628203312698</v>
+        <v>0.02856339940946339</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>601390273.219049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2818111456.13299</v>
+        <v>2564253233.741089</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1197594477485671</v>
+        <v>0.1617611793735221</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03260266605025498</v>
+        <v>0.02733629729822842</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>166</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1409055740.553169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3403461624.726746</v>
+        <v>3303932714.749157</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1049627400526184</v>
+        <v>0.12825703976005</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02761924354411264</v>
+        <v>0.03715632483867515</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>140</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1701730820.913199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1529400023.231049</v>
+        <v>1927879933.97033</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09354613642143224</v>
+        <v>0.1306242740790874</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05100182192644091</v>
+        <v>0.03434303249853665</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>764699995.7146251</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1828251208.553563</v>
+        <v>1569655703.151956</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1915448758043867</v>
+        <v>0.1482536198748723</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05007569527738338</v>
+        <v>0.0390074699782138</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>914125599.4778616</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2647808451.607518</v>
+        <v>2822292723.351335</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1067210741264767</v>
+        <v>0.1081792628441227</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04010535079472823</v>
+        <v>0.04014548185268603</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1323904220.947116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3362859817.138372</v>
+        <v>3194499188.071745</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1355702445937867</v>
+        <v>0.1037724795121589</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04023469274258668</v>
+        <v>0.03982744698647612</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>125</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1681429950.384356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2034990820.251741</v>
+        <v>1902901732.619767</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1653598684334151</v>
+        <v>0.128306595603373</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03065110944067109</v>
+        <v>0.0356112126163027</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1017495413.034517</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2480918846.298436</v>
+        <v>2886869161.306018</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08342524798085897</v>
+        <v>0.08866159041290872</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05021986893479328</v>
+        <v>0.0349227144907597</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1240459460.65104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1804304981.434996</v>
+        <v>2012617813.489013</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1093700775620341</v>
+        <v>0.1296816370128995</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04722031160431368</v>
+        <v>0.04447558125393194</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>902152498.5920486</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4293871886.326925</v>
+        <v>3820088027.491181</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1764338511563709</v>
+        <v>0.1435625394504688</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02583547425186176</v>
+        <v>0.02891195089941133</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>134</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2146936023.184934</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2793192666.267174</v>
+        <v>3638924692.593902</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08950091409047847</v>
+        <v>0.122919688385899</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01994819721366344</v>
+        <v>0.02279130618276122</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>111</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1396596303.852923</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2780166024.720018</v>
+        <v>2947669066.690059</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09752686115518623</v>
+        <v>0.1052437789313879</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03190153106984273</v>
+        <v>0.0214440147266311</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>132</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1390082982.405597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3019882326.088953</v>
+        <v>3770442329.33817</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1466871405683294</v>
+        <v>0.172722045751859</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02688898066827528</v>
+        <v>0.02422421705118866</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1509941155.477482</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3157011135.631553</v>
+        <v>2288269217.503257</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1630953177289315</v>
+        <v>0.2028115324275613</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05228279033300324</v>
+        <v>0.0558219527693465</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>169</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1578505677.67955</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_419.xlsx
+++ b/output/fit_clients/fit_round_419.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2101187595.881913</v>
+        <v>2439840009.474512</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07682024896881369</v>
+        <v>0.08828898105428075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03721588816592323</v>
+        <v>0.03931193720324291</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2249982215.849567</v>
+        <v>1860269757.117574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1302827250995391</v>
+        <v>0.1725932839243368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03390679067535118</v>
+        <v>0.0326764953711022</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3384203427.488715</v>
+        <v>4741660006.652802</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1410853078736239</v>
+        <v>0.1146855859692902</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02307568356886659</v>
+        <v>0.03003377310446624</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4158316354.787749</v>
+        <v>3428012800.24814</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06801874920245124</v>
+        <v>0.09429113923797362</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04042735219284179</v>
+        <v>0.03919210694097931</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1843377446.52768</v>
+        <v>2709126730.743419</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1449535155429343</v>
+        <v>0.1073983976802294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03465198959021276</v>
+        <v>0.05606730450095303</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2388697511.572078</v>
+        <v>2539770659.00811</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09540284019654735</v>
+        <v>0.06424781808285183</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04269437732818141</v>
+        <v>0.03485983965700038</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2959507688.525041</v>
+        <v>2937394364.511813</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2094736049758316</v>
+        <v>0.2037370162173421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02690028130732407</v>
+        <v>0.0224695539743731</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1837856191.65625</v>
+        <v>1713194514.161988</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1846651843200078</v>
+        <v>0.1647064950507503</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03402738885458312</v>
+        <v>0.0299217449923693</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5182441978.805881</v>
+        <v>5317131729.269308</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1920791510742235</v>
+        <v>0.1568573122509303</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05084490390379075</v>
+        <v>0.04316272139619224</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3119763615.630704</v>
+        <v>3717870527.975756</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1888806419323295</v>
+        <v>0.1287729027969021</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04595305819181805</v>
+        <v>0.0467284814644656</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3225413604.005548</v>
+        <v>2371766740.280381</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1494697735509297</v>
+        <v>0.1853758613621388</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03565390410519341</v>
+        <v>0.04337712841084224</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3608370706.074078</v>
+        <v>4581681812.05902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08875296790877618</v>
+        <v>0.0853155028513036</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02229450758456445</v>
+        <v>0.02368929892605203</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2738920541.2504</v>
+        <v>3701705320.541521</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1665764652804358</v>
+        <v>0.1357720255453675</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02980198713254301</v>
+        <v>0.04308987950888581</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1795408768.789068</v>
+        <v>1591331320.099162</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0837723533326953</v>
+        <v>0.101054294868358</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03995665683608073</v>
+        <v>0.04383599378433686</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1868266700.309504</v>
+        <v>2451044844.446799</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07591669869758172</v>
+        <v>0.1116786999814191</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0453117926385011</v>
+        <v>0.04944572110895478</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5039952876.747858</v>
+        <v>4348734859.993254</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1558224618190888</v>
+        <v>0.1543503286867411</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03802861711273742</v>
+        <v>0.05315511441524553</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2622106481.567139</v>
+        <v>3386667458.912516</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1718427734872392</v>
+        <v>0.1167889883121051</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02463041646829384</v>
+        <v>0.02191550021269715</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1065220639.651011</v>
+        <v>901798764.038395</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1404712863345824</v>
+        <v>0.1617489795532684</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02286276139459305</v>
+        <v>0.0274342192698127</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2221192112.550195</v>
+        <v>2029528440.524364</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1579749629960189</v>
+        <v>0.103006224072845</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0255968846771716</v>
+        <v>0.02649357562596112</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1696963050.208</v>
+        <v>1841793986.407483</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09526103666121966</v>
+        <v>0.07863597403872492</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03910304630231267</v>
+        <v>0.03904066376032298</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3874373760.69907</v>
+        <v>3251268789.687483</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09800671399036413</v>
+        <v>0.1082255489284778</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04932658690961705</v>
+        <v>0.03563980776013299</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>950966125.5454159</v>
+        <v>1464141689.942832</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1748450556514047</v>
+        <v>0.1179672437617742</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04163417544016322</v>
+        <v>0.03928420765812567</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3458679419.881903</v>
+        <v>3427051357.67756</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1160755944356367</v>
+        <v>0.1130199624348517</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03587570452434464</v>
+        <v>0.02378720877892619</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1284584564.541945</v>
+        <v>1409219273.078995</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1056182677227018</v>
+        <v>0.1018993542464443</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02375729205647563</v>
+        <v>0.02924837947444727</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>939884457.6480951</v>
+        <v>939658158.8900706</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1203750935506832</v>
+        <v>0.103237164159895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0325579358084186</v>
+        <v>0.02612903278774651</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2930866986.756671</v>
+        <v>3502875400.361795</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1456794994259151</v>
+        <v>0.1388493094252715</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02711709853620836</v>
+        <v>0.01954045380496311</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2348278905.270382</v>
+        <v>2384320992.767395</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1049816178136511</v>
+        <v>0.1299034862404903</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03901274303349485</v>
+        <v>0.04644001826455349</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5951224625.773016</v>
+        <v>5234378114.373598</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1280158055273153</v>
+        <v>0.1413397729285368</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04253977296050626</v>
+        <v>0.04414764685150771</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2158608770.641109</v>
+        <v>2200184941.075921</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1044002585938551</v>
+        <v>0.1336350398614672</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02646126565432927</v>
+        <v>0.03364891832259108</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1262013644.405003</v>
+        <v>1255642885.806161</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09482706899876335</v>
+        <v>0.09718696806105437</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03788260902052093</v>
+        <v>0.03227499002345598</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1185997753.518331</v>
+        <v>1676877711.53453</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1128236989731082</v>
+        <v>0.0977173776473709</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02978507330010572</v>
+        <v>0.03311917282887725</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2864064991.64742</v>
+        <v>2377221000.343567</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1911403661684011</v>
+        <v>0.1312469268255927</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04551718804577935</v>
+        <v>0.03733529838137582</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1488666158.950697</v>
+        <v>1043132995.268181</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07341069294105697</v>
+        <v>0.1158014085603124</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02252561264523156</v>
+        <v>0.01748135805220488</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1261235839.404873</v>
+        <v>919804269.7069842</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07423377306097158</v>
+        <v>0.1180970976743741</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03227012607623259</v>
+        <v>0.03724079546235674</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1959945226.351714</v>
+        <v>2079607271.342349</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1252279060226682</v>
+        <v>0.1262571380605098</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01906274237672855</v>
+        <v>0.02281960317055911</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2648299011.558535</v>
+        <v>2477164070.762352</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0767544373091644</v>
+        <v>0.08119450877443207</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03529544248553764</v>
+        <v>0.03593364330456899</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2074377619.550744</v>
+        <v>1338404122.255648</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1062629813064832</v>
+        <v>0.1107251563220281</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0373707388683877</v>
+        <v>0.03109685427622002</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1520646443.557646</v>
+        <v>2105856044.380831</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1463734547591352</v>
+        <v>0.1250710638053876</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03291002299716209</v>
+        <v>0.02770282245471701</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1154300409.913378</v>
+        <v>1498642009.657355</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1444192146531955</v>
+        <v>0.1481867655163871</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05590347843852034</v>
+        <v>0.0591374411104477</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2550964631.65237</v>
+        <v>2335996575.339954</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1563450998845539</v>
+        <v>0.1411911873360198</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03070114054172572</v>
+        <v>0.03345254998471794</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3701502475.613224</v>
+        <v>2933533085.737241</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1235777632637644</v>
+        <v>0.1175420956946125</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03881138258544015</v>
+        <v>0.04042537221567399</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2117549466.716793</v>
+        <v>1880942031.169542</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1991570350278906</v>
+        <v>0.1513755567928658</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02242414521994157</v>
+        <v>0.01740297432722579</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1952372794.008474</v>
+        <v>1775969320.341545</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07819944836413741</v>
+        <v>0.08988449668111409</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02297874960882329</v>
+        <v>0.02378921064583745</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1597872875.685188</v>
+        <v>1945455824.449782</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1366382963291044</v>
+        <v>0.1494091025024656</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04403286437804113</v>
+        <v>0.03985270418383345</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4857434925.857579</v>
+        <v>3757253354.231235</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1704029806626815</v>
+        <v>0.1612048673117078</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04584649093961324</v>
+        <v>0.06141716207473003</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3657371232.287537</v>
+        <v>4678817392.486693</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1463791326717254</v>
+        <v>0.1968092219775149</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04569295133658375</v>
+        <v>0.05391176868667373</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3437849000.116848</v>
+        <v>4109153905.58778</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07375053695878389</v>
+        <v>0.06820896120638631</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03820626761753117</v>
+        <v>0.02914329960278721</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1925333666.933919</v>
+        <v>1976243647.659342</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1696939949202065</v>
+        <v>0.1189795999891952</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02830566912904595</v>
+        <v>0.03967156113394615</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3700783844.674809</v>
+        <v>4098946539.44728</v>
       </c>
       <c r="F50" t="n">
-        <v>0.12595041516695</v>
+        <v>0.1230191280324961</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04796186567009363</v>
+        <v>0.04367139209358312</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1104281790.628062</v>
+        <v>1250160464.912688</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1675642941105222</v>
+        <v>0.1363690396087482</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04149640727039114</v>
+        <v>0.05081044044296276</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4402465993.673504</v>
+        <v>3555355412.67621</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290078200624548</v>
+        <v>0.0855030091237045</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04638818559770086</v>
+        <v>0.03956873272039092</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2451914420.718347</v>
+        <v>3038476347.989346</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1676912609905982</v>
+        <v>0.1687945073425262</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0285664323046292</v>
+        <v>0.03469646304745584</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3555045475.179533</v>
+        <v>4953838597.367955</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1064419831371895</v>
+        <v>0.1386473338020518</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04610171330442704</v>
+        <v>0.04031008312273957</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3509974180.756542</v>
+        <v>3108367081.835033</v>
       </c>
       <c r="F55" t="n">
-        <v>0.143901079257834</v>
+        <v>0.1761013613612211</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02236251164843696</v>
+        <v>0.02653257269955549</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1541115598.702569</v>
+        <v>1801731982.818779</v>
       </c>
       <c r="F56" t="n">
-        <v>0.140213671322225</v>
+        <v>0.1191809260303132</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04588762109010613</v>
+        <v>0.03929838867701536</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4587729349.600985</v>
+        <v>2851972486.538007</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1618404854418627</v>
+        <v>0.1742810745840324</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01885745471608857</v>
+        <v>0.0201599902996507</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1370352438.92896</v>
+        <v>1353190755.936211</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1376197345581546</v>
+        <v>0.1790191442115804</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02648258635621019</v>
+        <v>0.02429559761871567</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5206046555.217008</v>
+        <v>4016002916.969785</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1135863845506628</v>
+        <v>0.111436760961175</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03923210459683125</v>
+        <v>0.04002009190214627</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3750619969.435268</v>
+        <v>3739295318.500448</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1295390630426737</v>
+        <v>0.1499476589121996</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03289937035736758</v>
+        <v>0.02809162962962508</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3332578534.784663</v>
+        <v>2388476608.643025</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1298276981434017</v>
+        <v>0.1332096413935565</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0304775470717887</v>
+        <v>0.03134497588197445</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1805007295.72855</v>
+        <v>1938790180.666602</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1459469387010477</v>
+        <v>0.1758903724704516</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0344644015334519</v>
+        <v>0.035087511719947</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5484484434.751554</v>
+        <v>4241089420.458552</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09112617388396173</v>
+        <v>0.06933977971207864</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03764490164437793</v>
+        <v>0.04551758347356068</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3596793803.117619</v>
+        <v>4372685503.608087</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1826752085121127</v>
+        <v>0.1622906659693457</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02613506931419559</v>
+        <v>0.03383208007272764</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5416764074.466395</v>
+        <v>4529440643.920369</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1597113424481372</v>
+        <v>0.1712988936366825</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02437036193554281</v>
+        <v>0.01957245018992909</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4445326019.663337</v>
+        <v>5004365303.130021</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1458728276754385</v>
+        <v>0.1109116273628869</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04887535211261738</v>
+        <v>0.03223839592775973</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2345765564.056352</v>
+        <v>2462438472.755938</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1023202183606103</v>
+        <v>0.08268462042060032</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04592451478499053</v>
+        <v>0.03458444593938367</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5892588378.223509</v>
+        <v>3952616452.278323</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1304918338689148</v>
+        <v>0.1507594266579418</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03264496840718382</v>
+        <v>0.04150627657898501</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2150199579.156173</v>
+        <v>2272385729.824124</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1593513284352608</v>
+        <v>0.1735666238622688</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03912102870325689</v>
+        <v>0.04382354598306324</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2248666870.347234</v>
+        <v>2750802549.504119</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08562957805954713</v>
+        <v>0.08239030937649931</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0368944348739147</v>
+        <v>0.03880207139680184</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4866531590.807354</v>
+        <v>5364030894.921793</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1578988858737462</v>
+        <v>0.1486499045075394</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02253156607026587</v>
+        <v>0.02086853428137496</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1885444132.559343</v>
+        <v>2229334163.025209</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09455447897829776</v>
+        <v>0.07007155921810396</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03355355639452869</v>
+        <v>0.04375068297019799</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2557656970.641953</v>
+        <v>2185690515.987542</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07750928390490802</v>
+        <v>0.08570053592741871</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04516916393925395</v>
+        <v>0.04157625056778944</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3415119827.859364</v>
+        <v>2648600252.381653</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1433297689289928</v>
+        <v>0.1361620082686643</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03123201274113528</v>
+        <v>0.03218608452313266</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2365260339.84345</v>
+        <v>1767515063.245023</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1457556543877224</v>
+        <v>0.144668102897872</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03243979763114411</v>
+        <v>0.02824582332216501</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5206737886.01528</v>
+        <v>3242442469.689793</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09267788793377561</v>
+        <v>0.1039432983582497</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02149618255033621</v>
+        <v>0.02061294979676265</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2085767291.428145</v>
+        <v>1737591673.245461</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1640974711956824</v>
+        <v>0.138069955358932</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02010616039737385</v>
+        <v>0.0239733215418333</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3797321279.40904</v>
+        <v>4249062225.391491</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1308416675962023</v>
+        <v>0.08971555648931168</v>
       </c>
       <c r="G78" t="n">
-        <v>0.043959878709888</v>
+        <v>0.05522855858160508</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1225154339.752712</v>
+        <v>1530685659.015867</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1126820179366088</v>
+        <v>0.1353030662693314</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0392564180082262</v>
+        <v>0.0295501840601466</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4845536955.32128</v>
+        <v>3469418127.118221</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06999159351015301</v>
+        <v>0.09092638005425652</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02730250146518524</v>
+        <v>0.02528599358289872</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4137735486.296617</v>
+        <v>3863476680.973709</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09710457699547839</v>
+        <v>0.1251167672026161</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03148279802121732</v>
+        <v>0.0307011631583401</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5466326561.740255</v>
+        <v>4718334316.875636</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1401292737187884</v>
+        <v>0.1627091968928797</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02310901501652247</v>
+        <v>0.01915999848543976</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1649244232.778134</v>
+        <v>1678916787.04181</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1102988692038443</v>
+        <v>0.1354511505052178</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02992489877026803</v>
+        <v>0.03251994849049302</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2535209924.698059</v>
+        <v>2503375605.857608</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07843481155439061</v>
+        <v>0.1133430247169953</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04688715291334312</v>
+        <v>0.03191847987126532</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3469633039.763854</v>
+        <v>2256486712.655327</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1690323905592301</v>
+        <v>0.127844159424168</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05469210224909196</v>
+        <v>0.05019071222709311</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2032875122.206823</v>
+        <v>2108634641.633913</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1528721458366481</v>
+        <v>0.1665122482799356</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02355890246977957</v>
+        <v>0.01697714800076079</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1160450857.668307</v>
+        <v>1375694120.539378</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1185626306736181</v>
+        <v>0.1178855406515982</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02856339940946339</v>
+        <v>0.0422650084368188</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2564253233.741089</v>
+        <v>2602723091.415721</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1617611793735221</v>
+        <v>0.1590379843161328</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02733629729822842</v>
+        <v>0.03017192813115139</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3303932714.749157</v>
+        <v>2702418925.436451</v>
       </c>
       <c r="F89" t="n">
-        <v>0.12825703976005</v>
+        <v>0.1069595031440121</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03715632483867515</v>
+        <v>0.02542657120570065</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1927879933.97033</v>
+        <v>1767420123.793125</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1306242740790874</v>
+        <v>0.1142214306991304</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03434303249853665</v>
+        <v>0.05265061554926975</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1569655703.151956</v>
+        <v>1671755082.53651</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1482536198748723</v>
+        <v>0.1837326684060566</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0390074699782138</v>
+        <v>0.06153579197652551</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2822292723.351335</v>
+        <v>2029349254.680674</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1081792628441227</v>
+        <v>0.07599895059319481</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04014548185268603</v>
+        <v>0.04568765282685898</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3194499188.071745</v>
+        <v>4921690880.391361</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1037724795121589</v>
+        <v>0.1376235252746046</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03982744698647612</v>
+        <v>0.04505955594599316</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1902901732.619767</v>
+        <v>1585038061.079059</v>
       </c>
       <c r="F94" t="n">
-        <v>0.128306595603373</v>
+        <v>0.1512503648060186</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0356112126163027</v>
+        <v>0.02739995778712079</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2886869161.306018</v>
+        <v>2956719485.370873</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08866159041290872</v>
+        <v>0.08324695832123738</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0349227144907597</v>
+        <v>0.0412249157657137</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2012617813.489013</v>
+        <v>1542656585.842021</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1296816370128995</v>
+        <v>0.1323443124066807</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04447558125393194</v>
+        <v>0.04442748945166956</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3820088027.491181</v>
+        <v>4273669869.846403</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1435625394504688</v>
+        <v>0.1208989211839415</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02891195089941133</v>
+        <v>0.01867386437201435</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3638924692.593902</v>
+        <v>3280797067.26955</v>
       </c>
       <c r="F98" t="n">
-        <v>0.122919688385899</v>
+        <v>0.1026940674318782</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02279130618276122</v>
+        <v>0.0202016314150275</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2947669066.690059</v>
+        <v>3075629454.65558</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1052437789313879</v>
+        <v>0.0947954023970187</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0214440147266311</v>
+        <v>0.03542017601050783</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3770442329.33817</v>
+        <v>2916999191.838299</v>
       </c>
       <c r="F100" t="n">
-        <v>0.172722045751859</v>
+        <v>0.1702944971394347</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02422421705118866</v>
+        <v>0.02746960912179588</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2288269217.503257</v>
+        <v>3186980480.261145</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2028115324275613</v>
+        <v>0.1622725568522472</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0558219527693465</v>
+        <v>0.03694730674938924</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_419.xlsx
+++ b/output/fit_clients/fit_round_419.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2439840009.474512</v>
+        <v>1674153269.671908</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08828898105428075</v>
+        <v>0.0814848610213387</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03931193720324291</v>
+        <v>0.0280612661916831</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1860269757.117574</v>
+        <v>1958613305.042412</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1725932839243368</v>
+        <v>0.1639504065286462</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0326764953711022</v>
+        <v>0.05013966616067764</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4741660006.652802</v>
+        <v>3572040197.406413</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1146855859692902</v>
+        <v>0.1338749155694417</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03003377310446624</v>
+        <v>0.032120101665418</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>212</v>
+      </c>
+      <c r="J4" t="n">
+        <v>419</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3428012800.24814</v>
+        <v>3006034867.330457</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09429113923797362</v>
+        <v>0.08492765395742345</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03919210694097931</v>
+        <v>0.03127952615017117</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>173</v>
+      </c>
+      <c r="J5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2709126730.743419</v>
+        <v>2416044552.221208</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1073983976802294</v>
+        <v>0.1058974495960141</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05606730450095303</v>
+        <v>0.04524614702555117</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2539770659.00811</v>
+        <v>2159244857.191111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06424781808285183</v>
+        <v>0.06841232615589188</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03485983965700038</v>
+        <v>0.04785264052629892</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2937394364.511813</v>
+        <v>2691620713.499223</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2037370162173421</v>
+        <v>0.1630531084207745</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0224695539743731</v>
+        <v>0.02477402934081766</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1713194514.161988</v>
+        <v>1952752762.066841</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1647064950507503</v>
+        <v>0.1852943478931519</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0299217449923693</v>
+        <v>0.02723842406373669</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +781,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5317131729.269308</v>
+        <v>4003603836.415906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1568573122509303</v>
+        <v>0.1615000120509335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04316272139619224</v>
+        <v>0.04812139737991786</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>334</v>
+      </c>
+      <c r="J10" t="n">
+        <v>419</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3717870527.975756</v>
+        <v>2961500194.668159</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1287729027969021</v>
+        <v>0.184376880648098</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0467284814644656</v>
+        <v>0.03626634406856609</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>173</v>
+      </c>
+      <c r="J11" t="n">
+        <v>417</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +845,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2371766740.280381</v>
+        <v>2627213604.148375</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1853758613621388</v>
+        <v>0.197343352606414</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04337712841084224</v>
+        <v>0.05208357429159088</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +880,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4581681812.05902</v>
+        <v>3802662358.49995</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0853155028513036</v>
+        <v>0.09525532250046256</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02368929892605203</v>
+        <v>0.02760295832390329</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>219</v>
+      </c>
+      <c r="J13" t="n">
+        <v>418</v>
+      </c>
+      <c r="K13" t="n">
+        <v>39.38561120911736</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +917,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3701705320.541521</v>
+        <v>2357832210.41023</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1357720255453675</v>
+        <v>0.1889993323940329</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04308987950888581</v>
+        <v>0.03279041204993783</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>87</v>
+      </c>
+      <c r="J14" t="n">
+        <v>418</v>
+      </c>
+      <c r="K14" t="n">
+        <v>23.70983524950104</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1591331320.099162</v>
+        <v>1449489123.785441</v>
       </c>
       <c r="F15" t="n">
-        <v>0.101054294868358</v>
+        <v>0.099680930895964</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04383599378433686</v>
+        <v>0.04338811788060146</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2451044844.446799</v>
+        <v>2564054080.729661</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1116786999814191</v>
+        <v>0.09511544919110741</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04944572110895478</v>
+        <v>0.03953641863058345</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4348734859.993254</v>
+        <v>4367640840.076759</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1543503286867411</v>
+        <v>0.120360217870191</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05315511441524553</v>
+        <v>0.03239924589981764</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>203</v>
+      </c>
+      <c r="J17" t="n">
+        <v>419</v>
+      </c>
+      <c r="K17" t="n">
+        <v>42.6794193286097</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3386667458.912516</v>
+        <v>2599263893.033059</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1167889883121051</v>
+        <v>0.1173015336238952</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02191550021269715</v>
+        <v>0.0318992115685971</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>108</v>
+      </c>
+      <c r="J18" t="n">
+        <v>416</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>901798764.038395</v>
+        <v>897476271.1005762</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1617489795532684</v>
+        <v>0.1364782739282051</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0274342192698127</v>
+        <v>0.026595758015862</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2029528440.524364</v>
+        <v>2796198607.92748</v>
       </c>
       <c r="F20" t="n">
-        <v>0.103006224072845</v>
+        <v>0.1423593349815561</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02649357562596112</v>
+        <v>0.02635225825655504</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1841793986.407483</v>
+        <v>2605073653.550137</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07863597403872492</v>
+        <v>0.09409885904993266</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03904066376032298</v>
+        <v>0.0331552974841722</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3251268789.687483</v>
+        <v>2468235355.856279</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1082255489284778</v>
+        <v>0.1232075372104899</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03563980776013299</v>
+        <v>0.05029069598547992</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>117</v>
+      </c>
+      <c r="J22" t="n">
+        <v>416</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1464141689.942832</v>
+        <v>1319701121.48439</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1179672437617742</v>
+        <v>0.1155836404669468</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03928420765812567</v>
+        <v>0.03796262702058976</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1277,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3427051357.67756</v>
+        <v>3048752609.024162</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1130199624348517</v>
+        <v>0.09324107720904282</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02378720877892619</v>
+        <v>0.02932813595797271</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>132</v>
+      </c>
+      <c r="J24" t="n">
+        <v>418</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.478062368231</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1409219273.078995</v>
+        <v>1009637175.494355</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1018993542464443</v>
+        <v>0.1154294574268942</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02924837947444727</v>
+        <v>0.01903021936246355</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>939658158.8900706</v>
+        <v>1300153887.623438</v>
       </c>
       <c r="F26" t="n">
-        <v>0.103237164159895</v>
+        <v>0.1052372356388731</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02612903278774651</v>
+        <v>0.03381818181895913</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3502875400.361795</v>
+        <v>3478532193.083728</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1388493094252715</v>
+        <v>0.1139786090835975</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01954045380496311</v>
+        <v>0.02450729674179333</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>178</v>
+      </c>
+      <c r="J27" t="n">
+        <v>419</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2384320992.767395</v>
+        <v>2486620143.307725</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1299034862404903</v>
+        <v>0.09805074665266171</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04644001826455349</v>
+        <v>0.03548193982938853</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>103</v>
+      </c>
+      <c r="J28" t="n">
+        <v>415</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5234378114.373598</v>
+        <v>5303327512.77056</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1413397729285368</v>
+        <v>0.1056296176484826</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04414764685150771</v>
+        <v>0.04633767656093821</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>350</v>
+      </c>
+      <c r="J29" t="n">
+        <v>418</v>
+      </c>
+      <c r="K29" t="n">
+        <v>40.67547619933067</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2200184941.075921</v>
+        <v>2382349434.697211</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1336350398614672</v>
+        <v>0.09304421488583463</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03364891832259108</v>
+        <v>0.03295571622607938</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1255642885.806161</v>
+        <v>1346423842.972131</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09718696806105437</v>
+        <v>0.08252788284140422</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03227499002345598</v>
+        <v>0.04741392703324191</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1676877711.53453</v>
+        <v>1459542890.66568</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0977173776473709</v>
+        <v>0.07896730683070555</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03311917282887725</v>
+        <v>0.03490833249921933</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2377221000.343567</v>
+        <v>3048877063.857431</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1312469268255927</v>
+        <v>0.2074157534522204</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03733529838137582</v>
+        <v>0.04178641606633957</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1043132995.268181</v>
+        <v>1229552324.323344</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1158014085603124</v>
+        <v>0.08947643528627613</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01748135805220488</v>
+        <v>0.02378824364725933</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>919804269.7069842</v>
+        <v>1088749873.421081</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1180970976743741</v>
+        <v>0.07154182867110152</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03724079546235674</v>
+        <v>0.0400652323089244</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2079607271.342349</v>
+        <v>2894073170.139195</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1262571380605098</v>
+        <v>0.1608329654287096</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02281960317055911</v>
+        <v>0.02777897215691458</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2477164070.762352</v>
+        <v>2008996515.827719</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08119450877443207</v>
+        <v>0.1089364762386614</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03593364330456899</v>
+        <v>0.02614030858564581</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1338404122.255648</v>
+        <v>1916956550.005037</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1107251563220281</v>
+        <v>0.08948821908563505</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03109685427622002</v>
+        <v>0.02618573609561781</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2105856044.380831</v>
+        <v>1919539831.697354</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1250710638053876</v>
+        <v>0.1389010020798945</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02770282245471701</v>
+        <v>0.03149383173537646</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1498642009.657355</v>
+        <v>1217643447.924375</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1481867655163871</v>
+        <v>0.1371242500555095</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0591374411104477</v>
+        <v>0.04132924461220332</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2335996575.339954</v>
+        <v>2541076581.661156</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1411911873360198</v>
+        <v>0.1100127089302907</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03345254998471794</v>
+        <v>0.03956718376910284</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2933533085.737241</v>
+        <v>3123078359.472211</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1175420956946125</v>
+        <v>0.1038874462463114</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04042537221567399</v>
+        <v>0.04514837154600955</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>179</v>
+      </c>
+      <c r="J42" t="n">
+        <v>416</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1880942031.169542</v>
+        <v>2038228359.290568</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1513755567928658</v>
+        <v>0.1687888847634412</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01740297432722579</v>
+        <v>0.0176184060757581</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1775969320.341545</v>
+        <v>1837316176.714895</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08988449668111409</v>
+        <v>0.1005897086574373</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02378921064583745</v>
+        <v>0.03359321011879804</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1945455824.449782</v>
+        <v>2297527073.739674</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1494091025024656</v>
+        <v>0.1565944601904783</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03985270418383345</v>
+        <v>0.03785665737913096</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3757253354.231235</v>
+        <v>4165179374.43278</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1612048673117078</v>
+        <v>0.1629735460865179</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06141716207473003</v>
+        <v>0.04450517606534128</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>251</v>
+      </c>
+      <c r="J46" t="n">
+        <v>418</v>
+      </c>
+      <c r="K46" t="n">
+        <v>41.0640206302261</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4678817392.486693</v>
+        <v>4450290530.537609</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1968092219775149</v>
+        <v>0.1668334780038103</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05391176868667373</v>
+        <v>0.04983798773005051</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>187</v>
+      </c>
+      <c r="J47" t="n">
+        <v>419</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4109153905.58778</v>
+        <v>4052412762.337277</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06820896120638631</v>
+        <v>0.1030278133904756</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02914329960278721</v>
+        <v>0.0386376279775435</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>215</v>
+      </c>
+      <c r="J48" t="n">
+        <v>418</v>
+      </c>
+      <c r="K48" t="n">
+        <v>41.60895446848144</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1976243647.659342</v>
+        <v>1901421936.164506</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1189795999891952</v>
+        <v>0.1532933459197603</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03967156113394615</v>
+        <v>0.02825992438167589</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4098946539.44728</v>
+        <v>3515265619.848184</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1230191280324961</v>
+        <v>0.1250821373815438</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04367139209358312</v>
+        <v>0.05198255985220732</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>144</v>
+      </c>
+      <c r="J50" t="n">
+        <v>419</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1250160464.912688</v>
+        <v>1455762143.501691</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1363690396087482</v>
+        <v>0.1758237188856471</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05081044044296276</v>
+        <v>0.04681127218510686</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3555355412.67621</v>
+        <v>3911514560.800026</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0855030091237045</v>
+        <v>0.08528956081018278</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03956873272039092</v>
+        <v>0.04514224195418256</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>242</v>
+      </c>
+      <c r="J52" t="n">
+        <v>418</v>
+      </c>
+      <c r="K52" t="n">
+        <v>41.22082196806473</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2302,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3038476347.989346</v>
+        <v>3308061962.590533</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1687945073425262</v>
+        <v>0.1855931939045586</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03469646304745584</v>
+        <v>0.03007283686313747</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>61</v>
+      </c>
+      <c r="J53" t="n">
+        <v>419</v>
+      </c>
+      <c r="K53" t="n">
+        <v>48.97750910702331</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4953838597.367955</v>
+        <v>3057976980.20344</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1386473338020518</v>
+        <v>0.1651076968571399</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04031008312273957</v>
+        <v>0.03639565589125495</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>223</v>
+      </c>
+      <c r="J54" t="n">
+        <v>417</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3108367081.835033</v>
+        <v>4200713798.049158</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1761013613612211</v>
+        <v>0.1411315298972011</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02653257269955549</v>
+        <v>0.03082149214035499</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>207</v>
+      </c>
+      <c r="J55" t="n">
+        <v>419</v>
+      </c>
+      <c r="K55" t="n">
+        <v>44.65498849128325</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1801731982.818779</v>
+        <v>1883095682.204569</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1191809260303132</v>
+        <v>0.1347032191665173</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03929838867701536</v>
+        <v>0.03821557943742441</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2851972486.538007</v>
+        <v>4465701228.232987</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1742810745840324</v>
+        <v>0.1681623836322731</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0201599902996507</v>
+        <v>0.02004457967348116</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>181</v>
+      </c>
+      <c r="J57" t="n">
+        <v>419</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1353190755.936211</v>
+        <v>1700951829.186501</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1790191442115804</v>
+        <v>0.129957475997015</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02429559761871567</v>
+        <v>0.02739762895788683</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4016002916.969785</v>
+        <v>3447093145.68735</v>
       </c>
       <c r="F59" t="n">
-        <v>0.111436760961175</v>
+        <v>0.08485030783588215</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04002009190214627</v>
+        <v>0.04828220176287739</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>205</v>
+      </c>
+      <c r="J59" t="n">
+        <v>418</v>
+      </c>
+      <c r="K59" t="n">
+        <v>34.2151223240263</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3739295318.500448</v>
+        <v>2853754152.309865</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1499476589121996</v>
+        <v>0.2002746714750997</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02809162962962508</v>
+        <v>0.03278715666674351</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>81</v>
+      </c>
+      <c r="J60" t="n">
+        <v>418</v>
+      </c>
+      <c r="K60" t="n">
+        <v>34.54529337726105</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2388476608.643025</v>
+        <v>2800546723.517262</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1332096413935565</v>
+        <v>0.1352944738077409</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03134497588197445</v>
+        <v>0.02117110022056969</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1938790180.666602</v>
+        <v>1872514225.767931</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1758903724704516</v>
+        <v>0.1882915383866495</v>
       </c>
       <c r="G62" t="n">
-        <v>0.035087511719947</v>
+        <v>0.04784666280088436</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4241089420.458552</v>
+        <v>5158624440.751752</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06933977971207864</v>
+        <v>0.07388593264492198</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04551758347356068</v>
+        <v>0.03263376509177253</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>209</v>
+      </c>
+      <c r="J63" t="n">
+        <v>418</v>
+      </c>
+      <c r="K63" t="n">
+        <v>41.29525358889553</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4372685503.608087</v>
+        <v>5104665114.757364</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1622906659693457</v>
+        <v>0.1164730162712981</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03383208007272764</v>
+        <v>0.02382612564175248</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>210</v>
+      </c>
+      <c r="J64" t="n">
+        <v>418</v>
+      </c>
+      <c r="K64" t="n">
+        <v>41.13403623460037</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4529440643.920369</v>
+        <v>4924841625.223529</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1712988936366825</v>
+        <v>0.1103531681244059</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01957245018992909</v>
+        <v>0.0274282595128255</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>307</v>
+      </c>
+      <c r="J65" t="n">
+        <v>418</v>
+      </c>
+      <c r="K65" t="n">
+        <v>41.73757441191334</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5004365303.130021</v>
+        <v>3555669064.593933</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1109116273628869</v>
+        <v>0.1320657745703175</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03223839592775973</v>
+        <v>0.04908040433354932</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>206</v>
+      </c>
+      <c r="J66" t="n">
+        <v>419</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2462438472.755938</v>
+        <v>2837736717.03571</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08268462042060032</v>
+        <v>0.07656639751746019</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03458444593938367</v>
+        <v>0.03545171407418603</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3952616452.278323</v>
+        <v>5834114276.63957</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1507594266579418</v>
+        <v>0.1186325910088217</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04150627657898501</v>
+        <v>0.0367934179264843</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>229</v>
+      </c>
+      <c r="J68" t="n">
+        <v>418</v>
+      </c>
+      <c r="K68" t="n">
+        <v>38.91143307148072</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2272385729.824124</v>
+        <v>2129904534.906774</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1735666238622688</v>
+        <v>0.1301941122307995</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04382354598306324</v>
+        <v>0.05883022227043269</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2750802549.504119</v>
+        <v>2305652276.898945</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08239030937649931</v>
+        <v>0.08009640914974794</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03880207139680184</v>
+        <v>0.04047223047729755</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5364030894.921793</v>
+        <v>4306089811.009362</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1486499045075394</v>
+        <v>0.1460511487508918</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02086853428137496</v>
+        <v>0.03147215731779156</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>293</v>
+      </c>
+      <c r="J71" t="n">
+        <v>419</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2229334163.025209</v>
+        <v>2056558069.440796</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07007155921810396</v>
+        <v>0.09021994300067061</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04375068297019799</v>
+        <v>0.03358045431062805</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2185690515.987542</v>
+        <v>3329884882.130097</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08570053592741871</v>
+        <v>0.07715577546846947</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04157625056778944</v>
+        <v>0.0367645383831915</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3053,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2648600252.381653</v>
+        <v>3374097395.3183</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1361620082686643</v>
+        <v>0.1698753932159349</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03218608452313266</v>
+        <v>0.03237370541984911</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>119</v>
+      </c>
+      <c r="J74" t="n">
+        <v>419</v>
+      </c>
+      <c r="K74" t="n">
+        <v>44.01876887937652</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1767515063.245023</v>
+        <v>2331891887.437815</v>
       </c>
       <c r="F75" t="n">
-        <v>0.144668102897872</v>
+        <v>0.1309598907703003</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02824582332216501</v>
+        <v>0.03600402696121893</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3242442469.689793</v>
+        <v>3450969909.613318</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1039432983582497</v>
+        <v>0.08162736106331039</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02061294979676265</v>
+        <v>0.03303571216319482</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>199</v>
+      </c>
+      <c r="J76" t="n">
+        <v>419</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1737591673.245461</v>
+        <v>1855523347.257325</v>
       </c>
       <c r="F77" t="n">
-        <v>0.138069955358932</v>
+        <v>0.1390018960419166</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0239733215418333</v>
+        <v>0.03003588307250001</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4249062225.391491</v>
+        <v>3081886006.855478</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08971555648931168</v>
+        <v>0.08895451552718196</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05522855858160508</v>
+        <v>0.0398201446143597</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>210</v>
+      </c>
+      <c r="J78" t="n">
+        <v>418</v>
+      </c>
+      <c r="K78" t="n">
+        <v>26.9846463179899</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1530685659.015867</v>
+        <v>1601876330.326032</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1353030662693314</v>
+        <v>0.1453928536699181</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0295501840601466</v>
+        <v>0.03337348337918843</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3469418127.118221</v>
+        <v>3387960255.930433</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09092638005425652</v>
+        <v>0.1106138867454592</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02528599358289872</v>
+        <v>0.03638333091941313</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>204</v>
+      </c>
+      <c r="J80" t="n">
+        <v>419</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3863476680.973709</v>
+        <v>4825513228.039212</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1251167672026161</v>
+        <v>0.09336732054908882</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0307011631583401</v>
+        <v>0.03306698491353641</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>194</v>
+      </c>
+      <c r="J81" t="n">
+        <v>419</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4718334316.875636</v>
+        <v>3601551700.929977</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1627091968928797</v>
+        <v>0.1423294294395375</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01915999848543976</v>
+        <v>0.02762538638793232</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>284</v>
+      </c>
+      <c r="J82" t="n">
+        <v>419</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1678916787.04181</v>
+        <v>2092481113.187685</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1354511505052178</v>
+        <v>0.1335632646935499</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03251994849049302</v>
+        <v>0.03738543097343074</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2503375605.857608</v>
+        <v>1724221973.541996</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1133430247169953</v>
+        <v>0.1136033290804336</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03191847987126532</v>
+        <v>0.0453019318649162</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2256486712.655327</v>
+        <v>3653020588.271219</v>
       </c>
       <c r="F85" t="n">
-        <v>0.127844159424168</v>
+        <v>0.1416269645557438</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05019071222709311</v>
+        <v>0.0474622242411947</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>419</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2108634641.633913</v>
+        <v>1701906079.427887</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1665122482799356</v>
+        <v>0.1299343303321836</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01697714800076079</v>
+        <v>0.02106463445427686</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1375694120.539378</v>
+        <v>1002965294.618964</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1178855406515982</v>
+        <v>0.166935940113206</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0422650084368188</v>
+        <v>0.03544576624752454</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2602723091.415721</v>
+        <v>3637889915.895715</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1590379843161328</v>
+        <v>0.1105816780915074</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03017192813115139</v>
+        <v>0.03491075504049969</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>419</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2702418925.436451</v>
+        <v>3369308129.46507</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1069595031440121</v>
+        <v>0.1290784700536617</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02542657120570065</v>
+        <v>0.03002272092191124</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1767420123.793125</v>
+        <v>1838025671.925056</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1142214306991304</v>
+        <v>0.1066744140742951</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05265061554926975</v>
+        <v>0.03667512071174377</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1671755082.53651</v>
+        <v>2052942535.190775</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1837326684060566</v>
+        <v>0.146480309248364</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06153579197652551</v>
+        <v>0.04037627601492828</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2029349254.680674</v>
+        <v>1968304929.868958</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07599895059319481</v>
+        <v>0.07011243079885558</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04568765282685898</v>
+        <v>0.04458145304403611</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4921690880.391361</v>
+        <v>3791056696.424316</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1376235252746046</v>
+        <v>0.1422372888458536</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04505955594599316</v>
+        <v>0.04584173054132265</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>200</v>
+      </c>
+      <c r="J93" t="n">
+        <v>419</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1585038061.079059</v>
+        <v>1783360361.544789</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1512503648060186</v>
+        <v>0.1315579678696233</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02739995778712079</v>
+        <v>0.04010988776719314</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2956719485.370873</v>
+        <v>2351123376.182699</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08324695832123738</v>
+        <v>0.08478278733341206</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0412249157657137</v>
+        <v>0.03775950525774849</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1542656585.842021</v>
+        <v>1499619105.277675</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1323443124066807</v>
+        <v>0.09615183506128552</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04442748945166956</v>
+        <v>0.0393319378898434</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4273669869.846403</v>
+        <v>4028104868.833979</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1208989211839415</v>
+        <v>0.1344952480112967</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01867386437201435</v>
+        <v>0.02267760422189855</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>219</v>
+      </c>
+      <c r="J97" t="n">
+        <v>419</v>
+      </c>
+      <c r="K97" t="n">
+        <v>42.09144706949748</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3280797067.26955</v>
+        <v>2583190707.596281</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1026940674318782</v>
+        <v>0.09373669444507619</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0202016314150275</v>
+        <v>0.02611949330342864</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3075629454.65558</v>
+        <v>2770983034.378466</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0947954023970187</v>
+        <v>0.1143023311123053</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03542017601050783</v>
+        <v>0.02159679946701558</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2916999191.838299</v>
+        <v>3918402523.160669</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1702944971394347</v>
+        <v>0.1534195160976305</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02746960912179588</v>
+        <v>0.01948016876298405</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>195</v>
+      </c>
+      <c r="J100" t="n">
+        <v>418</v>
+      </c>
+      <c r="K100" t="n">
+        <v>41.21438010215208</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3186980480.261145</v>
+        <v>3043808314.375072</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1622725568522472</v>
+        <v>0.2201190156717986</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03694730674938924</v>
+        <v>0.04279788796158589</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
